--- a/biology/Médecine/Édouard_Chassaignac/Édouard_Chassaignac.xlsx
+++ b/biology/Médecine/Édouard_Chassaignac/Édouard_Chassaignac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Chassaignac</t>
+          <t>Édouard_Chassaignac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Chassaignac, né  le 24 décembre 1804 à Nantes et mort le 26 août 1879 à Versailles, est un médecin, chirurgien et professeur de médecine français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Chassaignac</t>
+          <t>Édouard_Chassaignac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Chassaignac suit des études à l'École de médecine de Nantes, il est interne à l'Hôtel-Dieu de Nantes. Il en sort diplômé du doctorat en médecine en 1835, avec une thèse sur les fractures de la hanche.
 En 1837, il est nommé professeur agrégé et prosecteur à la faculté de médecine de Paris.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Chassaignac</t>
+          <t>Édouard_Chassaignac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La « paralysie Chassaignac » est un terme qui désigne la pronation douloureuse qui est la lésion traumatique du coude.
-En anatomie, le « tubercule de Chassaignac », ou tubercule carotidien, désigne le tubercule antérieur du processus transverse de la sixième vertèbre cervicale[1].
+En anatomie, le « tubercule de Chassaignac », ou tubercule carotidien, désigne le tubercule antérieur du processus transverse de la sixième vertèbre cervicale.
 </t>
         </is>
       </c>
